--- a/database/industries/kashi/kesave/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kesave/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8160BAA8-8B57-4BC0-9E3C-2A1904CA5733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA79228-57BB-4719-B20C-36F1468565C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کساوه-صنایع‌ کاشی‌ و سرامیک‌ سینا</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-05-13 (5)</t>
-  </si>
-  <si>
-    <t>1400-11-18 (4)</t>
-  </si>
-  <si>
-    <t>1400-11-30 (3)</t>
-  </si>
-  <si>
-    <t>1401-04-26 (11)</t>
-  </si>
-  <si>
-    <t>1401-04-31 (4)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-11-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-28 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-28 (6)</t>
   </si>
   <si>
     <t>1401-04-31</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-10-14 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -615,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>753619</v>
+        <v>2248009</v>
       </c>
       <c r="E11" s="13">
-        <v>1468641</v>
+        <v>2337985</v>
       </c>
       <c r="F11" s="13">
-        <v>1704416</v>
+        <v>2174890</v>
       </c>
       <c r="G11" s="13">
-        <v>1794249</v>
+        <v>2866848</v>
       </c>
       <c r="H11" s="13">
-        <v>1432962</v>
-      </c>
-      <c r="I11" s="13">
-        <v>2245623</v>
-      </c>
-      <c r="J11" s="13">
-        <v>2247571</v>
-      </c>
-      <c r="K11" s="13">
-        <v>2337985</v>
-      </c>
-      <c r="L11" s="13">
-        <v>2174890</v>
-      </c>
-      <c r="M11" s="13">
-        <v>2968322</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3451935</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-459560</v>
+        <v>-1510463</v>
       </c>
       <c r="E12" s="11">
-        <v>-761580</v>
+        <v>-1869173</v>
       </c>
       <c r="F12" s="11">
-        <v>-881965</v>
+        <v>-1564449</v>
       </c>
       <c r="G12" s="11">
-        <v>-1138319</v>
+        <v>-1996908</v>
       </c>
       <c r="H12" s="11">
-        <v>-1006925</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-1427877</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-1510463</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-1869173</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-1564449</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-2047227</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-2355405</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>294059</v>
+        <v>737546</v>
       </c>
       <c r="E13" s="15">
-        <v>707061</v>
+        <v>468812</v>
       </c>
       <c r="F13" s="15">
-        <v>822451</v>
+        <v>610441</v>
       </c>
       <c r="G13" s="15">
-        <v>655930</v>
+        <v>869940</v>
       </c>
       <c r="H13" s="15">
-        <v>426037</v>
-      </c>
-      <c r="I13" s="15">
-        <v>817746</v>
-      </c>
-      <c r="J13" s="15">
-        <v>737108</v>
-      </c>
-      <c r="K13" s="15">
-        <v>468812</v>
-      </c>
-      <c r="L13" s="15">
-        <v>610441</v>
-      </c>
-      <c r="M13" s="15">
-        <v>921095</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1096530</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-56378</v>
+        <v>-36216</v>
       </c>
       <c r="E14" s="11">
-        <v>-12874</v>
+        <v>-163674</v>
       </c>
       <c r="F14" s="11">
-        <v>-92447</v>
+        <v>-77836</v>
       </c>
       <c r="G14" s="11">
-        <v>-44966</v>
+        <v>-118582</v>
       </c>
       <c r="H14" s="11">
-        <v>-48062</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-79753</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-36216</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-163674</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-77836</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-113813</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-147930</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-23498</v>
+        <v>26018</v>
       </c>
       <c r="E16" s="11">
-        <v>31310</v>
+        <v>17078</v>
       </c>
       <c r="F16" s="11">
-        <v>4898</v>
+        <v>33486</v>
       </c>
       <c r="G16" s="11">
-        <v>89344</v>
+        <v>62761</v>
       </c>
       <c r="H16" s="11">
-        <v>22025</v>
-      </c>
-      <c r="I16" s="11">
-        <v>56372</v>
-      </c>
-      <c r="J16" s="11">
-        <v>26018</v>
-      </c>
-      <c r="K16" s="11">
-        <v>17078</v>
-      </c>
-      <c r="L16" s="11">
-        <v>33486</v>
-      </c>
-      <c r="M16" s="11">
-        <v>-21970</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>77807</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>214183</v>
+        <v>727348</v>
       </c>
       <c r="E17" s="15">
-        <v>725497</v>
+        <v>322216</v>
       </c>
       <c r="F17" s="15">
-        <v>734902</v>
+        <v>566091</v>
       </c>
       <c r="G17" s="15">
-        <v>700308</v>
+        <v>814119</v>
       </c>
       <c r="H17" s="15">
-        <v>400000</v>
-      </c>
-      <c r="I17" s="15">
-        <v>794365</v>
-      </c>
-      <c r="J17" s="15">
-        <v>726910</v>
-      </c>
-      <c r="K17" s="15">
-        <v>322216</v>
-      </c>
-      <c r="L17" s="15">
-        <v>566091</v>
-      </c>
-      <c r="M17" s="15">
-        <v>785312</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1026407</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-4134</v>
+        <v>-607</v>
       </c>
       <c r="E18" s="11">
-        <v>-2462</v>
+        <v>-588</v>
       </c>
       <c r="F18" s="11">
-        <v>-2280</v>
+        <v>-202</v>
       </c>
       <c r="G18" s="11">
-        <v>-3462</v>
+        <v>-52</v>
       </c>
       <c r="H18" s="11">
-        <v>-1644</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-1325</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-607</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-588</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-202</v>
-      </c>
-      <c r="M18" s="11">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>28230</v>
+        <v>24050</v>
       </c>
       <c r="E19" s="13">
-        <v>98610</v>
+        <v>582862</v>
       </c>
       <c r="F19" s="13">
-        <v>-53670</v>
+        <v>44441</v>
       </c>
       <c r="G19" s="13">
-        <v>350792</v>
+        <v>56894</v>
       </c>
       <c r="H19" s="13">
-        <v>-10963</v>
-      </c>
-      <c r="I19" s="13">
-        <v>25161</v>
-      </c>
-      <c r="J19" s="13">
-        <v>24050</v>
-      </c>
-      <c r="K19" s="13">
-        <v>582862</v>
-      </c>
-      <c r="L19" s="13">
-        <v>44441</v>
-      </c>
-      <c r="M19" s="13">
-        <v>90273</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>58489</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>238279</v>
+        <v>750791</v>
       </c>
       <c r="E20" s="17">
-        <v>821645</v>
+        <v>904490</v>
       </c>
       <c r="F20" s="17">
-        <v>678952</v>
+        <v>610330</v>
       </c>
       <c r="G20" s="17">
-        <v>1047638</v>
+        <v>870961</v>
       </c>
       <c r="H20" s="17">
-        <v>387393</v>
-      </c>
-      <c r="I20" s="17">
-        <v>818201</v>
-      </c>
-      <c r="J20" s="17">
-        <v>750353</v>
-      </c>
-      <c r="K20" s="17">
-        <v>904490</v>
-      </c>
-      <c r="L20" s="17">
-        <v>610330</v>
-      </c>
-      <c r="M20" s="17">
-        <v>875533</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1084841</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-48526</v>
+        <v>-51350</v>
       </c>
       <c r="E21" s="13">
-        <v>-61735</v>
+        <v>-36312</v>
       </c>
       <c r="F21" s="13">
-        <v>-126444</v>
+        <v>-27549</v>
       </c>
       <c r="G21" s="13">
-        <v>143775</v>
+        <v>-62801</v>
       </c>
       <c r="H21" s="13">
-        <v>-19420</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-2486</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-51350</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-36312</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-27549</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-46687</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-39215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>189753</v>
+        <v>699441</v>
       </c>
       <c r="E22" s="17">
-        <v>759910</v>
+        <v>868178</v>
       </c>
       <c r="F22" s="17">
-        <v>552508</v>
+        <v>582781</v>
       </c>
       <c r="G22" s="17">
-        <v>1191413</v>
+        <v>808160</v>
       </c>
       <c r="H22" s="17">
-        <v>367973</v>
-      </c>
-      <c r="I22" s="17">
-        <v>815715</v>
-      </c>
-      <c r="J22" s="17">
-        <v>699003</v>
-      </c>
-      <c r="K22" s="17">
-        <v>868178</v>
-      </c>
-      <c r="L22" s="17">
-        <v>582781</v>
-      </c>
-      <c r="M22" s="17">
-        <v>828846</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1045626</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,97 +992,52 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>189753</v>
+        <v>699441</v>
       </c>
       <c r="E24" s="17">
-        <v>759910</v>
+        <v>868178</v>
       </c>
       <c r="F24" s="17">
-        <v>552508</v>
+        <v>582781</v>
       </c>
       <c r="G24" s="17">
-        <v>1191413</v>
+        <v>808160</v>
       </c>
       <c r="H24" s="17">
-        <v>367973</v>
-      </c>
-      <c r="I24" s="17">
-        <v>815715</v>
-      </c>
-      <c r="J24" s="17">
-        <v>699003</v>
-      </c>
-      <c r="K24" s="17">
-        <v>868178</v>
-      </c>
-      <c r="L24" s="17">
-        <v>582781</v>
-      </c>
-      <c r="M24" s="17">
-        <v>828846</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1045626</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>358</v>
+        <v>1321</v>
       </c>
       <c r="E25" s="13">
-        <v>1435</v>
+        <v>1639</v>
       </c>
       <c r="F25" s="13">
-        <v>1043</v>
+        <v>1101</v>
       </c>
       <c r="G25" s="13">
-        <v>2250</v>
+        <v>1526</v>
       </c>
       <c r="H25" s="13">
-        <v>695</v>
-      </c>
-      <c r="I25" s="13">
-        <v>1540</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1320</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1639</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1101</v>
-      </c>
-      <c r="M25" s="13">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1382,59 +1055,29 @@
       <c r="H26" s="11">
         <v>529550</v>
       </c>
-      <c r="I26" s="11">
-        <v>529550</v>
-      </c>
-      <c r="J26" s="11">
-        <v>529550</v>
-      </c>
-      <c r="K26" s="11">
-        <v>529550</v>
-      </c>
-      <c r="L26" s="11">
-        <v>529550</v>
-      </c>
-      <c r="M26" s="11">
-        <v>529550</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>358</v>
+        <v>1321</v>
       </c>
       <c r="E27" s="13">
-        <v>1435</v>
+        <v>1639</v>
       </c>
       <c r="F27" s="13">
-        <v>1043</v>
+        <v>1101</v>
       </c>
       <c r="G27" s="13">
-        <v>2250</v>
+        <v>1526</v>
       </c>
       <c r="H27" s="13">
-        <v>695</v>
-      </c>
-      <c r="I27" s="13">
-        <v>1540</v>
-      </c>
-      <c r="J27" s="13">
-        <v>1320</v>
-      </c>
-      <c r="K27" s="13">
-        <v>1639</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1101</v>
-      </c>
-      <c r="M27" s="13">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/kashi/kesave/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kesave/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA79228-57BB-4719-B20C-36F1468565C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837AE899-03CA-405B-A209-49A21E8FB277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-11-18 (4)</t>
+  </si>
+  <si>
+    <t>1400-11-30 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-26 (11)</t>
+  </si>
+  <si>
+    <t>1401-04-31 (4)</t>
+  </si>
+  <si>
+    <t>1401-10-14 (4)</t>
   </si>
   <si>
     <t>1401-10-28 (3)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>1468641</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1704416</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1794249</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1432962</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2245185</v>
+      </c>
+      <c r="I11" s="13">
         <v>2248009</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>2337985</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>2174890</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>2866848</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>3451935</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-761580</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-881965</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1138319</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1006925</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1427877</v>
+      </c>
+      <c r="I12" s="11">
         <v>-1510463</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-1869173</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-1564449</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-1996908</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-2355405</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>707061</v>
+      </c>
+      <c r="E13" s="15">
+        <v>822451</v>
+      </c>
+      <c r="F13" s="15">
+        <v>655930</v>
+      </c>
+      <c r="G13" s="15">
+        <v>426037</v>
+      </c>
+      <c r="H13" s="15">
+        <v>817308</v>
+      </c>
+      <c r="I13" s="15">
         <v>737546</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>468812</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>610441</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>869940</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>1096530</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-12874</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-92447</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-44966</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-48062</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-79753</v>
+      </c>
+      <c r="I14" s="11">
         <v>-36216</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-163674</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-77836</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-118582</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-147930</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>31310</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4898</v>
+      </c>
+      <c r="F16" s="11">
+        <v>89344</v>
+      </c>
+      <c r="G16" s="11">
+        <v>22025</v>
+      </c>
+      <c r="H16" s="11">
+        <v>56372</v>
+      </c>
+      <c r="I16" s="11">
         <v>26018</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>17078</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>33486</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>62761</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>77807</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>725497</v>
+      </c>
+      <c r="E17" s="15">
+        <v>734902</v>
+      </c>
+      <c r="F17" s="15">
+        <v>700308</v>
+      </c>
+      <c r="G17" s="15">
+        <v>400000</v>
+      </c>
+      <c r="H17" s="15">
+        <v>793927</v>
+      </c>
+      <c r="I17" s="15">
         <v>727348</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>322216</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>566091</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>814119</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>1026407</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-2462</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-2280</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-3462</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-1644</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-1325</v>
+      </c>
+      <c r="I18" s="11">
         <v>-607</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-588</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-202</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-52</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-55</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>98610</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-53670</v>
+      </c>
+      <c r="F19" s="13">
+        <v>350792</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-10963</v>
+      </c>
+      <c r="H19" s="13">
+        <v>25161</v>
+      </c>
+      <c r="I19" s="13">
         <v>24050</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>582862</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>44441</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>56894</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>58489</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>821645</v>
+      </c>
+      <c r="E20" s="17">
+        <v>678952</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1047638</v>
+      </c>
+      <c r="G20" s="17">
+        <v>387393</v>
+      </c>
+      <c r="H20" s="17">
+        <v>817763</v>
+      </c>
+      <c r="I20" s="17">
         <v>750791</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>904490</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>610330</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>870961</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>1084841</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-61735</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-126444</v>
+      </c>
+      <c r="F21" s="13">
+        <v>143775</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-19420</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-2486</v>
+      </c>
+      <c r="I21" s="13">
         <v>-51350</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-36312</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-27549</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-62801</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-39215</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>759910</v>
+      </c>
+      <c r="E22" s="17">
+        <v>552508</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1191413</v>
+      </c>
+      <c r="G22" s="17">
+        <v>367973</v>
+      </c>
+      <c r="H22" s="17">
+        <v>815277</v>
+      </c>
+      <c r="I22" s="17">
         <v>699441</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>868178</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>582781</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>808160</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>1045626</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,52 +1274,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>759910</v>
+      </c>
+      <c r="E24" s="17">
+        <v>552508</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1191413</v>
+      </c>
+      <c r="G24" s="17">
+        <v>367973</v>
+      </c>
+      <c r="H24" s="17">
+        <v>815277</v>
+      </c>
+      <c r="I24" s="17">
         <v>699441</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>868178</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>582781</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>808160</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>1045626</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>1435</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1043</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2250</v>
+      </c>
+      <c r="G25" s="13">
+        <v>695</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1540</v>
+      </c>
+      <c r="I25" s="13">
         <v>1321</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>1639</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>1101</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>1526</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>1975</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1055,29 +1382,59 @@
       <c r="H26" s="11">
         <v>529550</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>529550</v>
+      </c>
+      <c r="J26" s="11">
+        <v>529550</v>
+      </c>
+      <c r="K26" s="11">
+        <v>529550</v>
+      </c>
+      <c r="L26" s="11">
+        <v>529550</v>
+      </c>
+      <c r="M26" s="11">
+        <v>529550</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>1435</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1043</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2250</v>
+      </c>
+      <c r="G27" s="13">
+        <v>695</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1540</v>
+      </c>
+      <c r="I27" s="13">
         <v>1321</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>1639</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>1101</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>1526</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>1975</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/kashi/kesave/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kesave/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837AE899-03CA-405B-A209-49A21E8FB277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84DB1A4-D029-4733-82AD-3CB4157B3B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -630,7 +630,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,7 +822,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -858,7 +858,7 @@
         <v>3451935</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -894,7 +894,7 @@
         <v>-2355405</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1096530</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-147930</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>77807</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1026407</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>58489</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1084841</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>-39215</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1045626</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1045626</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>529550</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/kashi/kesave/income/quarterly/rial.xlsx
+++ b/database/industries/kashi/kesave/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\kashi\kesave\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84DB1A4-D029-4733-82AD-3CB4157B3B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB1209E-F4B9-4714-863C-01D3E2A1E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="1128" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-11-18 (4)</t>
-  </si>
-  <si>
     <t>1400-11-30 (3)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (3)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-03-21 (8)</t>
   </si>
   <si>
     <t>1401-04-31</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-03-21 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -623,11 +623,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -828,34 +829,34 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>1468641</v>
+        <v>1704416</v>
       </c>
       <c r="E11" s="13">
-        <v>1704416</v>
+        <v>1794249</v>
       </c>
       <c r="F11" s="13">
-        <v>1794249</v>
+        <v>1432962</v>
       </c>
       <c r="G11" s="13">
-        <v>1432962</v>
+        <v>2245185</v>
       </c>
       <c r="H11" s="13">
-        <v>2245185</v>
+        <v>2248009</v>
       </c>
       <c r="I11" s="13">
-        <v>2248009</v>
+        <v>2337985</v>
       </c>
       <c r="J11" s="13">
-        <v>2337985</v>
+        <v>2174890</v>
       </c>
       <c r="K11" s="13">
-        <v>2174890</v>
+        <v>2866848</v>
       </c>
       <c r="L11" s="13">
-        <v>2866848</v>
+        <v>3451935</v>
       </c>
       <c r="M11" s="13">
-        <v>3451935</v>
+        <v>3775390</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -864,34 +865,34 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-761580</v>
+        <v>-881965</v>
       </c>
       <c r="E12" s="11">
-        <v>-881965</v>
+        <v>-1138319</v>
       </c>
       <c r="F12" s="11">
-        <v>-1138319</v>
+        <v>-1006925</v>
       </c>
       <c r="G12" s="11">
-        <v>-1006925</v>
+        <v>-1427877</v>
       </c>
       <c r="H12" s="11">
-        <v>-1427877</v>
+        <v>-1510463</v>
       </c>
       <c r="I12" s="11">
-        <v>-1510463</v>
+        <v>-1869173</v>
       </c>
       <c r="J12" s="11">
-        <v>-1869173</v>
+        <v>-1564449</v>
       </c>
       <c r="K12" s="11">
-        <v>-1564449</v>
+        <v>-1996908</v>
       </c>
       <c r="L12" s="11">
-        <v>-1996908</v>
+        <v>-2355405</v>
       </c>
       <c r="M12" s="11">
-        <v>-2355405</v>
+        <v>-2835847</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -900,34 +901,34 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>707061</v>
+        <v>822451</v>
       </c>
       <c r="E13" s="15">
-        <v>822451</v>
+        <v>655930</v>
       </c>
       <c r="F13" s="15">
-        <v>655930</v>
+        <v>426037</v>
       </c>
       <c r="G13" s="15">
-        <v>426037</v>
+        <v>817308</v>
       </c>
       <c r="H13" s="15">
-        <v>817308</v>
+        <v>737546</v>
       </c>
       <c r="I13" s="15">
-        <v>737546</v>
+        <v>468812</v>
       </c>
       <c r="J13" s="15">
-        <v>468812</v>
+        <v>610441</v>
       </c>
       <c r="K13" s="15">
-        <v>610441</v>
+        <v>869940</v>
       </c>
       <c r="L13" s="15">
-        <v>869940</v>
+        <v>1096530</v>
       </c>
       <c r="M13" s="15">
-        <v>1096530</v>
+        <v>939543</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -936,34 +937,34 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-12874</v>
+        <v>-92447</v>
       </c>
       <c r="E14" s="11">
-        <v>-92447</v>
+        <v>-44966</v>
       </c>
       <c r="F14" s="11">
-        <v>-44966</v>
+        <v>-48062</v>
       </c>
       <c r="G14" s="11">
-        <v>-48062</v>
+        <v>-79753</v>
       </c>
       <c r="H14" s="11">
-        <v>-79753</v>
+        <v>-36216</v>
       </c>
       <c r="I14" s="11">
-        <v>-36216</v>
+        <v>-163674</v>
       </c>
       <c r="J14" s="11">
-        <v>-163674</v>
+        <v>-77836</v>
       </c>
       <c r="K14" s="11">
-        <v>-77836</v>
+        <v>-118582</v>
       </c>
       <c r="L14" s="11">
-        <v>-118582</v>
+        <v>-147930</v>
       </c>
       <c r="M14" s="11">
-        <v>-147930</v>
+        <v>-416620</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1008,34 +1009,34 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>31310</v>
+        <v>4898</v>
       </c>
       <c r="E16" s="11">
-        <v>4898</v>
+        <v>89344</v>
       </c>
       <c r="F16" s="11">
-        <v>89344</v>
+        <v>22025</v>
       </c>
       <c r="G16" s="11">
-        <v>22025</v>
+        <v>56372</v>
       </c>
       <c r="H16" s="11">
-        <v>56372</v>
+        <v>26018</v>
       </c>
       <c r="I16" s="11">
-        <v>26018</v>
+        <v>17078</v>
       </c>
       <c r="J16" s="11">
-        <v>17078</v>
+        <v>33486</v>
       </c>
       <c r="K16" s="11">
-        <v>33486</v>
+        <v>62761</v>
       </c>
       <c r="L16" s="11">
-        <v>62761</v>
+        <v>77807</v>
       </c>
       <c r="M16" s="11">
-        <v>77807</v>
+        <v>71825</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1044,34 +1045,34 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>725497</v>
+        <v>734902</v>
       </c>
       <c r="E17" s="15">
-        <v>734902</v>
+        <v>700308</v>
       </c>
       <c r="F17" s="15">
-        <v>700308</v>
+        <v>400000</v>
       </c>
       <c r="G17" s="15">
-        <v>400000</v>
+        <v>793927</v>
       </c>
       <c r="H17" s="15">
-        <v>793927</v>
+        <v>727348</v>
       </c>
       <c r="I17" s="15">
-        <v>727348</v>
+        <v>322216</v>
       </c>
       <c r="J17" s="15">
-        <v>322216</v>
+        <v>566091</v>
       </c>
       <c r="K17" s="15">
-        <v>566091</v>
+        <v>814119</v>
       </c>
       <c r="L17" s="15">
-        <v>814119</v>
+        <v>1026407</v>
       </c>
       <c r="M17" s="15">
-        <v>1026407</v>
+        <v>594748</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1080,34 +1081,34 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-2462</v>
+        <v>-2280</v>
       </c>
       <c r="E18" s="11">
-        <v>-2280</v>
+        <v>-3462</v>
       </c>
       <c r="F18" s="11">
-        <v>-3462</v>
+        <v>-1644</v>
       </c>
       <c r="G18" s="11">
-        <v>-1644</v>
+        <v>-1325</v>
       </c>
       <c r="H18" s="11">
-        <v>-1325</v>
+        <v>-607</v>
       </c>
       <c r="I18" s="11">
-        <v>-607</v>
+        <v>-588</v>
       </c>
       <c r="J18" s="11">
-        <v>-588</v>
+        <v>-202</v>
       </c>
       <c r="K18" s="11">
-        <v>-202</v>
+        <v>-52</v>
       </c>
       <c r="L18" s="11">
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="M18" s="11">
-        <v>-55</v>
+        <v>-36384</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1116,34 +1117,34 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>98610</v>
+        <v>-53670</v>
       </c>
       <c r="E19" s="13">
-        <v>-53670</v>
+        <v>350792</v>
       </c>
       <c r="F19" s="13">
-        <v>350792</v>
+        <v>-10963</v>
       </c>
       <c r="G19" s="13">
-        <v>-10963</v>
+        <v>25161</v>
       </c>
       <c r="H19" s="13">
-        <v>25161</v>
+        <v>24050</v>
       </c>
       <c r="I19" s="13">
-        <v>24050</v>
+        <v>582862</v>
       </c>
       <c r="J19" s="13">
-        <v>582862</v>
+        <v>44441</v>
       </c>
       <c r="K19" s="13">
-        <v>44441</v>
+        <v>56894</v>
       </c>
       <c r="L19" s="13">
-        <v>56894</v>
+        <v>58489</v>
       </c>
       <c r="M19" s="13">
-        <v>58489</v>
+        <v>1024408</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1152,34 +1153,34 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>821645</v>
+        <v>678952</v>
       </c>
       <c r="E20" s="17">
-        <v>678952</v>
+        <v>1047638</v>
       </c>
       <c r="F20" s="17">
-        <v>1047638</v>
+        <v>387393</v>
       </c>
       <c r="G20" s="17">
-        <v>387393</v>
+        <v>817763</v>
       </c>
       <c r="H20" s="17">
-        <v>817763</v>
+        <v>750791</v>
       </c>
       <c r="I20" s="17">
-        <v>750791</v>
+        <v>904490</v>
       </c>
       <c r="J20" s="17">
-        <v>904490</v>
+        <v>610330</v>
       </c>
       <c r="K20" s="17">
-        <v>610330</v>
+        <v>870961</v>
       </c>
       <c r="L20" s="17">
-        <v>870961</v>
+        <v>1084841</v>
       </c>
       <c r="M20" s="17">
-        <v>1084841</v>
+        <v>1582772</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1188,34 +1189,34 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-61735</v>
+        <v>-126444</v>
       </c>
       <c r="E21" s="13">
-        <v>-126444</v>
+        <v>143775</v>
       </c>
       <c r="F21" s="13">
-        <v>143775</v>
+        <v>-19420</v>
       </c>
       <c r="G21" s="13">
-        <v>-19420</v>
+        <v>-2486</v>
       </c>
       <c r="H21" s="13">
-        <v>-2486</v>
+        <v>-51350</v>
       </c>
       <c r="I21" s="13">
-        <v>-51350</v>
+        <v>-36312</v>
       </c>
       <c r="J21" s="13">
-        <v>-36312</v>
+        <v>-27549</v>
       </c>
       <c r="K21" s="13">
-        <v>-27549</v>
+        <v>-62801</v>
       </c>
       <c r="L21" s="13">
-        <v>-62801</v>
+        <v>-39215</v>
       </c>
       <c r="M21" s="13">
-        <v>-39215</v>
+        <v>-63841</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1224,34 +1225,34 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>759910</v>
+        <v>552508</v>
       </c>
       <c r="E22" s="17">
-        <v>552508</v>
+        <v>1191413</v>
       </c>
       <c r="F22" s="17">
-        <v>1191413</v>
+        <v>367973</v>
       </c>
       <c r="G22" s="17">
-        <v>367973</v>
+        <v>815277</v>
       </c>
       <c r="H22" s="17">
-        <v>815277</v>
+        <v>699441</v>
       </c>
       <c r="I22" s="17">
-        <v>699441</v>
+        <v>868178</v>
       </c>
       <c r="J22" s="17">
-        <v>868178</v>
+        <v>582781</v>
       </c>
       <c r="K22" s="17">
-        <v>582781</v>
+        <v>808160</v>
       </c>
       <c r="L22" s="17">
-        <v>808160</v>
+        <v>1045626</v>
       </c>
       <c r="M22" s="17">
-        <v>1045626</v>
+        <v>1518931</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1296,34 +1297,34 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>759910</v>
+        <v>552508</v>
       </c>
       <c r="E24" s="17">
-        <v>552508</v>
+        <v>1191413</v>
       </c>
       <c r="F24" s="17">
-        <v>1191413</v>
+        <v>367973</v>
       </c>
       <c r="G24" s="17">
-        <v>367973</v>
+        <v>815277</v>
       </c>
       <c r="H24" s="17">
-        <v>815277</v>
+        <v>699441</v>
       </c>
       <c r="I24" s="17">
-        <v>699441</v>
+        <v>868178</v>
       </c>
       <c r="J24" s="17">
-        <v>868178</v>
+        <v>582781</v>
       </c>
       <c r="K24" s="17">
-        <v>582781</v>
+        <v>808160</v>
       </c>
       <c r="L24" s="17">
-        <v>808160</v>
+        <v>1045626</v>
       </c>
       <c r="M24" s="17">
-        <v>1045626</v>
+        <v>1518931</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1332,34 +1333,34 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1435</v>
+        <v>1043</v>
       </c>
       <c r="E25" s="13">
-        <v>1043</v>
+        <v>2250</v>
       </c>
       <c r="F25" s="13">
-        <v>2250</v>
+        <v>695</v>
       </c>
       <c r="G25" s="13">
-        <v>695</v>
+        <v>1540</v>
       </c>
       <c r="H25" s="13">
-        <v>1540</v>
+        <v>1321</v>
       </c>
       <c r="I25" s="13">
-        <v>1321</v>
+        <v>1640</v>
       </c>
       <c r="J25" s="13">
-        <v>1639</v>
+        <v>1101</v>
       </c>
       <c r="K25" s="13">
-        <v>1101</v>
+        <v>1526</v>
       </c>
       <c r="L25" s="13">
-        <v>1526</v>
+        <v>1975</v>
       </c>
       <c r="M25" s="13">
-        <v>1975</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1404,34 +1405,34 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>1435</v>
+        <v>1043</v>
       </c>
       <c r="E27" s="13">
-        <v>1043</v>
+        <v>2250</v>
       </c>
       <c r="F27" s="13">
-        <v>2250</v>
+        <v>695</v>
       </c>
       <c r="G27" s="13">
-        <v>695</v>
+        <v>1540</v>
       </c>
       <c r="H27" s="13">
-        <v>1540</v>
+        <v>1321</v>
       </c>
       <c r="I27" s="13">
-        <v>1321</v>
+        <v>1639</v>
       </c>
       <c r="J27" s="13">
-        <v>1639</v>
+        <v>1101</v>
       </c>
       <c r="K27" s="13">
-        <v>1101</v>
+        <v>1526</v>
       </c>
       <c r="L27" s="13">
-        <v>1526</v>
+        <v>1975</v>
       </c>
       <c r="M27" s="13">
-        <v>1975</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
